--- a/may report.xlsx
+++ b/may report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Documents\codes\ZFC-Fitness-Report-Generator-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{211CC98E-7872-4EEB-A60B-5BBFEAA1BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C838B6-A7AC-4A12-BA74-943EDEB75AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="649" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quadri" sheetId="1" r:id="rId1"/>
@@ -533,12 +533,12 @@
   </sheetPr>
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F39" sqref="F39"/>
       <selection pane="topRight" activeCell="F39" sqref="F39"/>
       <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1210,7 @@
   </sheetPr>
   <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F39" sqref="F39"/>
       <selection pane="bottomLeft" activeCell="E33" sqref="E33:G33"/>
